--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/金属产品制造业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/金属产品制造业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.801835068219945</v>
+        <v>0.819855763559253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.043960112043736</v>
+        <v>0.03766808279879</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008801209746176999</v>
+        <v>0.008977455394779</v>
       </c>
       <c r="F2" t="n">
-        <v>9.239282762600001e-05</v>
+        <v>0.000117380794353</v>
       </c>
       <c r="G2" t="n">
-        <v>0.055475065095216</v>
+        <v>0.06746044812207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.018958015860641</v>
+        <v>0.01952739408425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.027145204961761</v>
+        <v>0.03480480451465</v>
       </c>
       <c r="J2" t="n">
-        <v>0.198164931780055</v>
+        <v>0.180144236440747</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000261189458514</v>
+        <v>0.000285038197571</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002609771479231</v>
+        <v>0.003220939070276</v>
       </c>
       <c r="M2" t="n">
-        <v>0.021182584335281</v>
+        <v>0.023137442481784</v>
       </c>
       <c r="N2" t="n">
-        <v>0.049419919248221</v>
+        <v>0.050879173587438</v>
       </c>
       <c r="O2" t="n">
-        <v>0.039036294876335</v>
+        <v>0.035772241098836</v>
       </c>
       <c r="P2" t="n">
-        <v>0.049175168914331</v>
+        <v>0.031449954668765</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.047778244111089</v>
+        <v>0.052820015436185</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002719608306796</v>
+        <v>0.002848384453306</v>
       </c>
       <c r="S2" t="n">
-        <v>0.066369492808747</v>
+        <v>0.046429029135263</v>
       </c>
       <c r="T2" t="n">
-        <v>0.028344191275461</v>
+        <v>0.028396265153082</v>
       </c>
       <c r="U2" t="n">
-        <v>0.13402050015326</v>
+        <v>0.184300869438642</v>
       </c>
       <c r="V2" t="n">
-        <v>0.37718745431579</v>
+        <v>0.33629208591694</v>
       </c>
       <c r="W2" t="n">
-        <v>0.011428038445507</v>
+        <v>0.013061417644733</v>
       </c>
       <c r="X2" t="n">
-        <v>0.012878129013167</v>
+        <v>0.01928551068374</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003157412723112</v>
+        <v>0.003266067324547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.819855763559253</v>
+        <v>0.815678025433106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03766808279879</v>
+        <v>0.040565066659342</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008977455394779</v>
+        <v>0.010183732136421</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000117380794353</v>
+        <v>0.000194740174583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06746044812207</v>
+        <v>0.063286819580887</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01952739408425</v>
+        <v>0.023777367133615</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03480480451465</v>
+        <v>0.033275775136669</v>
       </c>
       <c r="J3" t="n">
-        <v>0.180144236440747</v>
+        <v>0.184321974566894</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000285038197571</v>
+        <v>0.001216840786663</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003220939070276</v>
+        <v>0.006607442127818</v>
       </c>
       <c r="M3" t="n">
-        <v>0.023137442481784</v>
+        <v>0.01438784998195</v>
       </c>
       <c r="N3" t="n">
-        <v>0.050879173587438</v>
+        <v>0.028966006275252</v>
       </c>
       <c r="O3" t="n">
-        <v>0.035772241098836</v>
+        <v>0.037657862990061</v>
       </c>
       <c r="P3" t="n">
-        <v>0.031449954668765</v>
+        <v>0.029810684223747</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.052820015436185</v>
+        <v>0.043469972569303</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002848384453306</v>
+        <v>0.002200347218525</v>
       </c>
       <c r="S3" t="n">
-        <v>0.046429029135263</v>
+        <v>0.057948695625591</v>
       </c>
       <c r="T3" t="n">
-        <v>0.028396265153082</v>
+        <v>0.024366461585426</v>
       </c>
       <c r="U3" t="n">
-        <v>0.184300869438642</v>
+        <v>0.149394432232878</v>
       </c>
       <c r="V3" t="n">
-        <v>0.33629208591694</v>
+        <v>0.386486173509533</v>
       </c>
       <c r="W3" t="n">
-        <v>0.013061417644733</v>
+        <v>0.027347463040844</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01928551068374</v>
+        <v>0.014844901371484</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003266067324547</v>
+        <v>0.004011365639407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.815678025433106</v>
+        <v>0.847573516234981</v>
       </c>
       <c r="D4" t="n">
-        <v>0.040565066659342</v>
+        <v>0.034672610174184</v>
       </c>
       <c r="E4" t="n">
-        <v>0.010183732136421</v>
+        <v>0.013728203626439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000194740174583</v>
+        <v>0.000264547554796</v>
       </c>
       <c r="G4" t="n">
-        <v>0.063286819580887</v>
+        <v>0.058573205706336</v>
       </c>
       <c r="H4" t="n">
-        <v>0.023777367133615</v>
+        <v>0.02938789531638</v>
       </c>
       <c r="I4" t="n">
-        <v>0.033275775136669</v>
+        <v>0.028490485058845</v>
       </c>
       <c r="J4" t="n">
-        <v>0.184321974566894</v>
+        <v>0.152426483765019</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001216840786663</v>
+        <v>0.001613891143161</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006607442127818</v>
+        <v>0.012027093867828</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01438784998195</v>
+        <v>0.022051942605664</v>
       </c>
       <c r="N4" t="n">
-        <v>0.028966006275252</v>
+        <v>0.038309765375859</v>
       </c>
       <c r="O4" t="n">
-        <v>0.037657862990061</v>
+        <v>0.033556108662621</v>
       </c>
       <c r="P4" t="n">
-        <v>0.029810684223747</v>
+        <v>0.028501521673411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.043469972569303</v>
+        <v>0.056738272427707</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002200347218525</v>
+        <v>0.003538323263807</v>
       </c>
       <c r="S4" t="n">
-        <v>0.057948695625591</v>
+        <v>0.036861271326427</v>
       </c>
       <c r="T4" t="n">
-        <v>0.024366461585426</v>
+        <v>0.029837289868706</v>
       </c>
       <c r="U4" t="n">
-        <v>0.149394432232878</v>
+        <v>0.131147566447961</v>
       </c>
       <c r="V4" t="n">
-        <v>0.386486173509533</v>
+        <v>0.37924629605554</v>
       </c>
       <c r="W4" t="n">
-        <v>0.027347463040844</v>
+        <v>0.036947403828337</v>
       </c>
       <c r="X4" t="n">
-        <v>0.014844901371484</v>
+        <v>0.018289662143504</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004011365639407</v>
+        <v>0.006216643872487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.847573516234981</v>
+        <v>0.76980110751907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.034672610174184</v>
+        <v>0.039476845957502</v>
       </c>
       <c r="E5" t="n">
-        <v>0.013728203626439</v>
+        <v>0.016767597139432</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000264547554796</v>
+        <v>8.0336236062e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.058573205706336</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.02938789531638</v>
-      </c>
+        <v>0.084212784223812</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.028490485058845</v>
+        <v>0.034680525942375</v>
       </c>
       <c r="J5" t="n">
-        <v>0.152426483765019</v>
+        <v>0.23019889248093</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001613891143161</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.012027093867828</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.022051942605664</v>
-      </c>
+        <v>0.000157195009534</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.038309765375859</v>
+        <v>0.025321645910871</v>
       </c>
       <c r="O5" t="n">
-        <v>0.033556108662621</v>
+        <v>0.052564386214351</v>
       </c>
       <c r="P5" t="n">
-        <v>0.028501521673411</v>
+        <v>0.033854100117667</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.056738272427707</v>
+        <v>0.04846749990384</v>
       </c>
       <c r="R5" t="n">
-        <v>0.003538323263807</v>
+        <v>0.001847241134736</v>
       </c>
       <c r="S5" t="n">
-        <v>0.036861271326427</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.029837289868706</v>
-      </c>
+        <v>0.077451482197076</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.131147566447961</v>
+        <v>0.14414965789224</v>
       </c>
       <c r="V5" t="n">
-        <v>0.37924629605554</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.036947403828337</v>
-      </c>
+        <v>0.331304397707683</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.018289662143504</v>
+        <v>0.013848847384902</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.006216643872487</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.76980110751907</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.039476845957502</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.016767597139432</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8.0336236062e-05</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.084212784223812</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.034680525942375</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.23019889248093</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.000157195009534</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.025321645910871</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.052564386214351</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.033854100117667</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.04846749990384</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.001847241134736</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.077451482197076</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.14414965789224</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.331304397707683</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.013848847384902</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.006313433755721</v>
       </c>
     </row>
